--- a/jupyter/GAN_Hyperparameter_Search.xlsx
+++ b/jupyter/GAN_Hyperparameter_Search.xlsx
@@ -24,118 +24,118 @@
     <t>Improvement</t>
   </si>
   <si>
-    <t xml:space="preserve">Meaures found in:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Keras Website GAN</t>
   </si>
   <si>
     <t xml:space="preserve">Similar results</t>
   </si>
   <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slight influence on image quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kernel Size?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAE generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No impovement visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preprocessing -1, 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rather worse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam parameters like DCGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight init like DCGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slight improvement on image quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leaky ReLU slope like DCGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch norm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtual Batch Norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReLU in generator, Leaky ReLU in discriminator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One-sided label smoothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data shuffle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical averaging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Circle equilibirum not critical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feature matching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More specific to mode collapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minibatch discrimination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience Replay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discriminator is not too greedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BigGAN or WGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced architectures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Maxpooling</t>
+  </si>
+  <si>
+    <t>Applied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Dense Layers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5 Dropout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label Randomness</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
     <t>https://towardsdatascience.com/gan-ways-to-improve-gan-performance-acf37f9f59b</t>
   </si>
   <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slight influence on image quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kernel Size?</t>
-  </si>
-  <si>
     <t>https://machinelearningmastery.com/how-to-train-stable-generative-adversarial-networks/</t>
   </si>
   <si>
-    <t xml:space="preserve">VAE generator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No impovement visible</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unsupervised Representation Learning with Deep Convolutional Generative Adversarial Networks (Radford)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preprocessing -1, 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rather worse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam parameters like DCGAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight init like DCGAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slight improvement on image quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leaky ReLU slope like DCGAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batch norm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtual Batch Norm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReLU in generator, Leaky ReLU in discriminator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batch Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One-sided label smoothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data shuffle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use labels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historical averaging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Circle around equilibirum not too critical (though could be better)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feature matching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More specific to mode collapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minibatch discrimination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experience Replay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discriminator is not too greedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BigGAN or WGAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Possibility with advanced architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Maxpooling</t>
-  </si>
-  <si>
-    <t>Applied</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Dense Layers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5 Dropout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label Randomness</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -213,8 +213,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
       <top style="medium">
         <color theme="1"/>
       </top>
@@ -245,6 +249,39 @@
       <left style="medium">
         <color theme="1"/>
       </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
       <right/>
       <top style="medium">
         <color theme="1"/>
@@ -254,10 +291,10 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -274,6 +311,15 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color theme="1"/>
       </right>
@@ -287,29 +333,44 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="2" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="5" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,7 +880,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="42.00390625"/>
-    <col customWidth="1" min="2" max="2" width="57.00390625"/>
+    <col customWidth="1" min="2" max="2" width="31.7109375"/>
     <col customWidth="1" min="3" max="3" width="36.00390625"/>
     <col customWidth="1" min="4" max="4" width="15.57421875"/>
     <col customWidth="1" min="5" max="5" width="95.421875"/>
@@ -842,243 +903,262 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" ht="14.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="7"/>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="12" t="s">
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="13" t="s">
-        <v>16</v>
-      </c>
       <c r="B7" s="8"/>
-      <c r="C7" s="14" t="s">
-        <v>12</v>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="12" t="s">
-        <v>12</v>
+      <c r="C9" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="15"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="12" t="s">
-        <v>12</v>
+      <c r="C12" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="13" t="s">
-        <v>23</v>
+      <c r="A13" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="12" t="s">
-        <v>12</v>
+      <c r="C13" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="13" t="s">
-        <v>24</v>
+      <c r="A14" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="12" t="s">
-        <v>12</v>
+      <c r="C14" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="13" t="s">
-        <v>25</v>
+      <c r="A15" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="12" t="s">
-        <v>12</v>
+      <c r="C15" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="14.25">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" ht="14.25">
       <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" ht="14.25">
       <c r="A18" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" ht="14.25">
       <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" ht="14.25">
       <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="12"/>
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" ht="14.25">
       <c r="A22" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="C22" s="11" t="s">
-        <v>37</v>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="14.25">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="C23" s="11" t="s">
-        <v>37</v>
+      <c r="C23" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="14.25">
       <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="19" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25"/>
-    <row r="27" ht="14.25"/>
-    <row r="28" ht="14.25"/>
-    <row r="29" ht="14.25"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+    </row>
     <row r="30" ht="14.25"/>
     <row r="31" ht="14.25"/>
     <row r="32" ht="14.25"/>
     <row r="33" ht="14.25"/>
     <row r="34" ht="14.25"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
-    <hyperlink r:id="rId2" ref="E4"/>
+    <hyperlink r:id="rId1" ref="A27"/>
+    <hyperlink r:id="rId2" ref="A28"/>
   </hyperlinks>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
